--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H2">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J2">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N2">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P2">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q2">
-        <v>336.1220934039183</v>
+        <v>2569.080410797329</v>
       </c>
       <c r="R2">
-        <v>336.1220934039183</v>
+        <v>23121.72369717597</v>
       </c>
       <c r="S2">
-        <v>0.00883861260513721</v>
+        <v>0.03318007265848506</v>
       </c>
       <c r="T2">
-        <v>0.00883861260513721</v>
+        <v>0.03318007265848507</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H3">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J3">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N3">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P3">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q3">
-        <v>8610.971084281773</v>
+        <v>38378.52153535955</v>
       </c>
       <c r="R3">
-        <v>8610.971084281773</v>
+        <v>345406.6938182359</v>
       </c>
       <c r="S3">
-        <v>0.2264327131764725</v>
+        <v>0.4956645684255775</v>
       </c>
       <c r="T3">
-        <v>0.2264327131764725</v>
+        <v>0.4956645684255776</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>33.6807057203939</v>
+        <v>149.656361</v>
       </c>
       <c r="H4">
-        <v>33.6807057203939</v>
+        <v>448.969083</v>
       </c>
       <c r="I4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347563</v>
       </c>
       <c r="J4">
-        <v>0.2636985015108322</v>
+        <v>0.5921360794347564</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N4">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P4">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q4">
-        <v>1081.052224204708</v>
+        <v>4900.555707383974</v>
       </c>
       <c r="R4">
-        <v>1081.052224204708</v>
+        <v>44105.00136645577</v>
       </c>
       <c r="S4">
-        <v>0.02842717572922257</v>
+        <v>0.06329143835069367</v>
       </c>
       <c r="T4">
-        <v>0.02842717572922257</v>
+        <v>0.06329143835069369</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H5">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J5">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N5">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P5">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q5">
-        <v>500.1489051159529</v>
+        <v>905.2619331140733</v>
       </c>
       <c r="R5">
-        <v>500.1489051159529</v>
+        <v>8147.357398026659</v>
       </c>
       <c r="S5">
-        <v>0.01315183531209051</v>
+        <v>0.01169159851495794</v>
       </c>
       <c r="T5">
-        <v>0.01315183531209051</v>
+        <v>0.01169159851495794</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H6">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J6">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N6">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P6">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q6">
-        <v>12813.10525045794</v>
+        <v>13523.36596750473</v>
       </c>
       <c r="R6">
-        <v>12813.10525045794</v>
+        <v>121710.2937075426</v>
       </c>
       <c r="S6">
-        <v>0.3369313585749764</v>
+        <v>0.1746563725694489</v>
       </c>
       <c r="T6">
-        <v>0.3369313585749764</v>
+        <v>0.1746563725694489</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.1168129681512</v>
+        <v>52.73412466666667</v>
       </c>
       <c r="H7">
-        <v>50.1168129681512</v>
+        <v>158.202374</v>
       </c>
       <c r="I7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="J7">
-        <v>0.3923827662612752</v>
+        <v>0.208649853730866</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N7">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P7">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q7">
-        <v>1608.603233526235</v>
+        <v>1726.799408206454</v>
       </c>
       <c r="R7">
-        <v>1608.603233526235</v>
+        <v>15541.19467385808</v>
       </c>
       <c r="S7">
-        <v>0.04229957237420835</v>
+        <v>0.02230188264645917</v>
       </c>
       <c r="T7">
-        <v>0.04229957237420835</v>
+        <v>0.02230188264645917</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H8">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J8">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>9.979663021146081</v>
+        <v>17.16653</v>
       </c>
       <c r="N8">
-        <v>9.979663021146081</v>
+        <v>51.49959</v>
       </c>
       <c r="O8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="P8">
-        <v>0.03351787194275784</v>
+        <v>0.0560345397128279</v>
       </c>
       <c r="Q8">
-        <v>438.3744449625261</v>
+        <v>864.3232095366033</v>
       </c>
       <c r="R8">
-        <v>438.3744449625261</v>
+        <v>7778.90888582943</v>
       </c>
       <c r="S8">
-        <v>0.01152742402553013</v>
+        <v>0.01116286853938489</v>
       </c>
       <c r="T8">
-        <v>0.01152742402553013</v>
+        <v>0.01116286853938489</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H9">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J9">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>255.664805713016</v>
+        <v>256.4443053333333</v>
       </c>
       <c r="N9">
-        <v>255.664805713016</v>
+        <v>769.332916</v>
       </c>
       <c r="O9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="P9">
-        <v>0.8586803181631695</v>
+        <v>0.8370788162388805</v>
       </c>
       <c r="Q9">
-        <v>11230.53123771952</v>
+        <v>12911.7978445901</v>
       </c>
       <c r="R9">
-        <v>11230.53123771952</v>
+        <v>116206.1806013109</v>
       </c>
       <c r="S9">
-        <v>0.2953162464117208</v>
+        <v>0.1667578752438541</v>
       </c>
       <c r="T9">
-        <v>0.2953162464117208</v>
+        <v>0.1667578752438541</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>43.9267782923779</v>
+        <v>50.34932566666667</v>
       </c>
       <c r="H10">
-        <v>43.9267782923779</v>
+        <v>151.047977</v>
       </c>
       <c r="I10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="J10">
-        <v>0.3439187322278927</v>
+        <v>0.1992140668343777</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.0970775725202</v>
+        <v>32.74538866666666</v>
       </c>
       <c r="N10">
-        <v>32.0970775725202</v>
+        <v>98.236166</v>
       </c>
       <c r="O10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="P10">
-        <v>0.1078018098940727</v>
+        <v>0.1068866440482915</v>
       </c>
       <c r="Q10">
-        <v>1409.92121036135</v>
+        <v>1648.708238059575</v>
       </c>
       <c r="R10">
-        <v>1409.92121036135</v>
+        <v>14838.37414253618</v>
       </c>
       <c r="S10">
-        <v>0.03707506179064177</v>
+        <v>0.02129332305113868</v>
       </c>
       <c r="T10">
-        <v>0.03707506179064177</v>
+        <v>0.02129332305113869</v>
       </c>
     </row>
   </sheetData>
